--- a/Data Conditional Formatting.xlsx
+++ b/Data Conditional Formatting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadd Mentor\Data_Analyst_Practice_Files\Neeraj Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadd Mentor\Student_Class_Code\Jazaul_Hasan_Data_Anylytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848B7E97-09A4-44C5-A383-75F9AD91911E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D658A26D-4491-4B8B-A5A6-B5CC59C0091B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{71DDF112-C278-43EA-A2DC-84F57FDD5360}"/>
   </bookViews>
@@ -1534,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE87C4-4216-4170-929D-5B4100F28119}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C61"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.6"/>
@@ -2105,10 +2105,7 @@
       <c r="C51" s="7">
         <v>6356</v>
       </c>
-      <c r="E51" s="15">
-        <f>AVERAGE(C2:C61)</f>
-        <v>6189.9333333333334</v>
-      </c>
+      <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">

--- a/Data Conditional Formatting.xlsx
+++ b/Data Conditional Formatting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadd Mentor\Student_Class_Code\Jazaul_Hasan_Data_Anylytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D658A26D-4491-4B8B-A5A6-B5CC59C0091B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98F855A-7EE0-4FCA-89E8-1AA258A76623}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{71DDF112-C278-43EA-A2DC-84F57FDD5360}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{71DDF112-C278-43EA-A2DC-84F57FDD5360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08666EA-AFFD-4908-A046-494F7B1BC5AF}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:F8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.6"/>
@@ -1534,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE87C4-4216-4170-929D-5B4100F28119}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.6"/>
